--- a/scripts/RestClient/delta/voucher survey/data.xlsx
+++ b/scripts/RestClient/delta/voucher survey/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kan088/Documents/Github/biocollect2/biocollect/scripts/RestClient/delta/voucher survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DDD409-7853-F44F-9FB9-D6F4CA8FEDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15C433-64CD-784A-897F-861F35F4DA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="7600" windowWidth="24200" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="7540" windowWidth="24200" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voucher Sample Collection  Qua" sheetId="1" r:id="rId1"/>
@@ -225,15 +225,6 @@
     <t>Karkalla</t>
   </si>
   <si>
-    <t>FR fresh fruit</t>
-  </si>
-  <si>
-    <t>FL flowering</t>
-  </si>
-  <si>
-    <t>N no breeding evident</t>
-  </si>
-  <si>
     <t>WRC_2012_LOC_Q1</t>
   </si>
   <si>
@@ -469,6 +460,15 @@
   </si>
   <si>
     <t>Permit # A26082-1</t>
+  </si>
+  <si>
+    <t>FR - Fresh fruit</t>
+  </si>
+  <si>
+    <t>FL -  Flowering</t>
+  </si>
+  <si>
+    <t>N -  No breeding evident</t>
   </si>
 </sst>
 </file>
@@ -955,10 +955,10 @@
   <dimension ref="A1:U247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1042,10 +1042,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
@@ -1090,17 +1090,17 @@
         <v>24</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="P2" s="2">
         <v>2.5</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T2" s="24">
         <f>VLOOKUP(S2,Locations!F:H,2,FALSE)</f>
@@ -1151,17 +1151,17 @@
         <v>29</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="P3" s="2">
         <v>1.2</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T3" s="24">
         <f>VLOOKUP(S3,Locations!F:H,2,FALSE)</f>
@@ -1212,17 +1212,17 @@
         <v>29</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="P4" s="2">
         <v>0.1</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S4" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T4" s="24">
         <f>VLOOKUP(S4,Locations!F:H,2,FALSE)</f>
@@ -1273,17 +1273,17 @@
         <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="P5" s="2">
         <v>1.5</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T5" s="24">
         <f>VLOOKUP(S5,Locations!F:H,2,FALSE)</f>
@@ -1334,17 +1334,17 @@
         <v>35</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="P6" s="2">
         <v>0.1</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T6" s="24">
         <f>VLOOKUP(S6,Locations!F:H,2,FALSE)</f>
@@ -6954,33 +6954,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
@@ -6992,10 +6992,10 @@
         <v>138.13489369999999</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G2" s="16">
         <v>-34.1809966</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" s="21">
         <v>2</v>
@@ -7018,10 +7018,10 @@
         <v>138.13620330000001</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3" s="16">
         <v>-34.181593999999997</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="21">
         <v>3</v>
@@ -7044,10 +7044,10 @@
         <v>138.14038840000001</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G4" s="16">
         <v>-34.180918699999999</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="21">
         <v>4</v>
@@ -7070,10 +7070,10 @@
         <v>138.14094220000001</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5" s="16">
         <v>-34.182063300000003</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="21">
         <v>5</v>
@@ -7096,10 +7096,10 @@
         <v>138.1384338</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" s="16">
         <v>-34.184861900000001</v>
@@ -7110,7 +7110,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7" s="21">
         <v>6</v>
@@ -7122,10 +7122,10 @@
         <v>138.1459557</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G7" s="16">
         <v>-34.181640000000002</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="21">
         <v>7</v>
@@ -7148,10 +7148,10 @@
         <v>138.1470137</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" s="16">
         <v>-34.1816654</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B9" s="21">
         <v>8</v>
@@ -7174,10 +7174,10 @@
         <v>138.1430196</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G9" s="16">
         <v>-34.186475999999999</v>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10" s="21">
         <v>9</v>
@@ -7200,10 +7200,10 @@
         <v>138.1407715</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="16">
         <v>-34.18676</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="21">
         <v>10</v>
@@ -7226,10 +7226,10 @@
         <v>138.14155059999999</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G11" s="16">
         <v>-34.186030700000003</v>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B12" s="21">
         <v>11</v>
@@ -7252,10 +7252,10 @@
         <v>138.14465229999999</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="16">
         <v>-34.184572099999997</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" s="21">
         <v>12</v>
@@ -7278,10 +7278,10 @@
         <v>138.14465749999999</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G13" s="16">
         <v>-34.183154999999999</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" s="22">
         <v>1</v>
@@ -7304,10 +7304,10 @@
         <v>134.20957024800001</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G14" s="16">
         <v>-32.965910016000002</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B15" s="22">
         <v>2</v>
@@ -7330,10 +7330,10 @@
         <v>134.21019652800001</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G15" s="16">
         <v>-32.965273553000003</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B16" s="22">
         <v>3</v>
@@ -7356,10 +7356,10 @@
         <v>134.21039797500001</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16" s="16">
         <v>-32.965482287999997</v>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B17" s="22">
         <v>4</v>
@@ -7382,10 +7382,10 @@
         <v>134.209367114</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G17" s="16">
         <v>-32.965890690000002</v>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="22">
         <v>5</v>
@@ -7408,10 +7408,10 @@
         <v>134.20948722099999</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G18" s="16">
         <v>-32.965620848</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="22">
         <v>6</v>
@@ -7434,10 +7434,10 @@
         <v>134.20889125599999</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G19" s="16">
         <v>-32.965256271999998</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B20" s="22">
         <v>7</v>
@@ -7460,10 +7460,10 @@
         <v>134.20970215899999</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G20" s="16">
         <v>-32.964314297999998</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="22">
         <v>8</v>
@@ -7486,10 +7486,10 @@
         <v>134.209852915</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G21" s="16">
         <v>-32.964207010000003</v>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="22">
         <v>9</v>
@@ -7512,10 +7512,10 @@
         <v>134.206418047</v>
       </c>
       <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="G22" s="16">
         <v>-32.957041330999999</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B23" s="22">
         <v>10</v>
@@ -7538,10 +7538,10 @@
         <v>134.207246231</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G23" s="16">
         <v>-32.960149498</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24" s="22">
         <v>11</v>
@@ -7564,10 +7564,10 @@
         <v>134.20970441</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G24" s="16">
         <v>-32.959254047000002</v>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B25" s="22">
         <v>12</v>
@@ -7590,10 +7590,10 @@
         <v>134.217059245</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G25" s="16">
         <v>-32.956341770999998</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B26" s="22">
         <v>13</v>
@@ -7616,10 +7616,10 @@
         <v>134.215471654</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G26" s="16">
         <v>-32.958018568</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B27" s="22">
         <v>14</v>
@@ -7642,10 +7642,10 @@
         <v>134.214610986</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G27" s="16">
         <v>-32.962180439999997</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B28" s="22">
         <v>15</v>
@@ -7668,10 +7668,10 @@
         <v>134.217217987</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G28" s="16">
         <v>-32.963820419999998</v>
@@ -7682,7 +7682,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B29" s="22">
         <v>16</v>
@@ -7694,10 +7694,10 @@
         <v>134.21136053999999</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G29" s="16">
         <v>-32.963125109000003</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B30" s="22">
         <v>1</v>
@@ -7720,10 +7720,10 @@
         <v>141.53031350000001</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G30">
         <v>-31.915768530000001</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B31" s="22">
         <v>2</v>
@@ -7746,10 +7746,10 @@
         <v>141.5293767</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G31">
         <v>-31.91656635</v>
@@ -7760,7 +7760,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B32" s="22">
         <v>3</v>
@@ -7772,10 +7772,10 @@
         <v>141.52902320000001</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G32">
         <v>-31.917632390000001</v>
@@ -7786,7 +7786,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B33" s="22">
         <v>4</v>
@@ -7798,10 +7798,10 @@
         <v>141.52904599999999</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G33">
         <v>-31.919770450000001</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B34" s="22">
         <v>5</v>
@@ -7824,10 +7824,10 @@
         <v>141.53087690000001</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G34">
         <v>-31.91995227</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B35" s="22">
         <v>6</v>
@@ -7850,10 +7850,10 @@
         <v>141.52600219999999</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G35">
         <v>-31.92022515</v>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36" s="22">
         <v>7</v>
@@ -7876,10 +7876,10 @@
         <v>141.5240584</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G36">
         <v>-31.922524710000001</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" s="22">
         <v>8</v>
@@ -7902,10 +7902,10 @@
         <v>141.52787369999999</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G37">
         <v>-31.923790010000001</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B38" s="22">
         <v>9</v>
@@ -7928,10 +7928,10 @@
         <v>141.5230742</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G38">
         <v>-31.9243241</v>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B39" s="22">
         <v>10</v>
@@ -7954,10 +7954,10 @@
         <v>141.524711</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G39">
         <v>-31.93127312</v>
@@ -7968,7 +7968,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B40" s="22">
         <v>11</v>
@@ -7980,10 +7980,10 @@
         <v>141.53409970000001</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G40">
         <v>-31.919361370000001</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B41" s="22">
         <v>12</v>
@@ -8006,10 +8006,10 @@
         <v>141.52641109999999</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G41">
         <v>-31.928866299999999</v>
@@ -8020,7 +8020,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B42" s="22">
         <v>14</v>
@@ -8032,10 +8032,10 @@
         <v>141.50912890000001</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G42">
         <v>-31.93714653</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B43" s="22">
         <v>16</v>
@@ -8058,10 +8058,10 @@
         <v>141.51237979999999</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G43">
         <v>-31.933876609999999</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B44" s="22">
         <v>17</v>
@@ -8084,10 +8084,10 @@
         <v>141.50780119999999</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G44">
         <v>-31.93234326</v>
@@ -8098,7 +8098,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B45" s="22">
         <v>18</v>
@@ -8110,10 +8110,10 @@
         <v>141.50993030000001</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G45">
         <v>-31.929014720000001</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B46" s="22">
         <v>19</v>
@@ -8136,10 +8136,10 @@
         <v>141.50994689999999</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G46">
         <v>-31.928175629999998</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B47" s="22">
         <v>20</v>
@@ -8162,10 +8162,10 @@
         <v>141.512508</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G47">
         <v>-31.924556620000001</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B48" s="22">
         <v>21</v>
@@ -8188,10 +8188,10 @@
         <v>141.5159051</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G48">
         <v>-31.922946020000001</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B49" s="22">
         <v>22</v>
@@ -8214,10 +8214,10 @@
         <v>141.51788550000001</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G49">
         <v>-31.92523851</v>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B50" s="22">
         <v>25</v>
@@ -8240,10 +8240,10 @@
         <v>141.5203301</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G50">
         <v>-31.927303519999999</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B51" s="22">
         <v>26</v>
@@ -8266,10 +8266,10 @@
         <v>141.5197148</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G51">
         <v>-31.926981260000002</v>
@@ -8280,7 +8280,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B52" s="22">
         <v>28</v>
@@ -8292,10 +8292,10 @@
         <v>141.52186230000001</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G52">
         <v>-31.921378969999999</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B53" s="15">
         <v>1</v>
@@ -8318,10 +8318,10 @@
         <v>138.513164066</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G53">
         <v>-34.945127298999999</v>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B54" s="15">
         <v>2</v>
@@ -8344,10 +8344,10 @@
         <v>138.512972405</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G54">
         <v>-34.945673263000003</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B55" s="15">
         <v>3</v>
@@ -8370,10 +8370,10 @@
         <v>138.51296973500001</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G55">
         <v>-34.946123937000003</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B56" s="15">
         <v>4</v>
@@ -8396,10 +8396,10 @@
         <v>138.51290664300001</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G56">
         <v>-34.946762679000003</v>
@@ -8410,7 +8410,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B57" s="15">
         <v>5</v>
@@ -8422,10 +8422,10 @@
         <v>138.51273381199999</v>
       </c>
       <c r="E57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G57">
         <v>-34.947047605000002</v>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B58" s="15">
         <v>6</v>
@@ -8448,10 +8448,10 @@
         <v>138.51290810899999</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G58">
         <v>-34.947438802999997</v>
@@ -8462,7 +8462,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B59" s="15">
         <v>7</v>
@@ -8474,10 +8474,10 @@
         <v>138.51279144700001</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G59">
         <v>-34.948400972000002</v>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B60" s="15">
         <v>8</v>
@@ -8500,10 +8500,10 @@
         <v>138.512534225</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G60">
         <v>-34.949666757000003</v>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B61" s="15">
         <v>9</v>
@@ -8526,10 +8526,10 @@
         <v>138.51222873</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G61">
         <v>-34.946009594000003</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B62" s="15">
         <v>10</v>
@@ -8552,10 +8552,10 @@
         <v>138.512111471</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G62">
         <v>-34.946629197</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B63" s="15">
         <v>11</v>
@@ -8578,10 +8578,10 @@
         <v>138.51204183499999</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G63">
         <v>-34.947484154999998</v>
@@ -8592,7 +8592,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B64" s="15">
         <v>13</v>
@@ -8604,10 +8604,10 @@
         <v>138.51237272500001</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G64">
         <v>-34.948852135999999</v>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B65" s="15">
         <v>14</v>
@@ -8630,10 +8630,10 @@
         <v>138.51191885200001</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G65">
         <v>-34.948292946000002</v>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B66" s="15">
         <v>15</v>
@@ -8656,10 +8656,10 @@
         <v>138.511996307</v>
       </c>
       <c r="E66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G66">
         <v>-34.948628071999998</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B67" s="15">
         <v>16</v>
@@ -8682,10 +8682,10 @@
         <v>138.51145409</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G67">
         <v>-34.948094114</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B68" s="15">
         <v>17</v>
@@ -8708,10 +8708,10 @@
         <v>138.51055217699999</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G68">
         <v>-34.947507704000003</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B69" s="15">
         <v>18</v>
@@ -8734,10 +8734,10 @@
         <v>138.51116398600001</v>
       </c>
       <c r="E69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G69">
         <v>-34.946826125999998</v>
@@ -8748,7 +8748,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B70" s="15">
         <v>19</v>
@@ -8760,10 +8760,10 @@
         <v>138.512650366</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G70">
         <v>-34.946910676999998</v>
